--- a/data/trans_bre/P25A_3_R2-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P25A_3_R2-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -640,20 +672,40 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>-1,26</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
+      <c r="J4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
+      <c r="K4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J4" s="2" t="inlineStr">
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -688,7 +740,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,33; 0,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -702,6 +754,26 @@
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -720,7 +792,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -740,22 +812,42 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-1,29</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
+      <c r="J6" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="L6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
         </is>
       </c>
     </row>
@@ -768,12 +860,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 0,0</t>
+          <t>-2,8; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,04</t>
+          <t>0,0; 3,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -788,12 +880,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,68; 0,0</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -802,6 +894,26 @@
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-7,72</t>
+          <t>-0,93</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-23,66%</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-19,18%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I8" s="2" t="inlineStr">
+      <c r="K8" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J8" s="2" t="inlineStr">
+      <c r="L8" s="2" t="inlineStr">
         <is>
           <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-39,6%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>155,5%</t>
         </is>
       </c>
     </row>
@@ -868,32 +1000,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 1,13</t>
+          <t>-1,79; 1,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,49</t>
+          <t>0,0; 1,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,46</t>
+          <t>0,0; 1,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-26,22; 0,0</t>
+          <t>-3,37; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,38; 0,72</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,87; 3,96</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -902,6 +1034,26 @@
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,46</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>-0,41</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-3,13</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-60,89%</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-50,18%</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-32,79%</t>
+          <t>-53,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-59,15%</t>
+          <t>-53,97%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>-33,75%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-59,71%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>425,22%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-23,43%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 0,3</t>
+          <t>-1,78; 0,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 0,64</t>
+          <t>-1,61; 0,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 0,84</t>
+          <t>-2,12; 0,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 4,02</t>
+          <t>-3,02; 0,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,03; 4,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,51; 2,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 266,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 410,69</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-79,21; 126,6</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-0,34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,78</t>
+          <t>-0,86</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,95</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-33,21%</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-51,78%</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>90,07%</t>
+          <t>-25,67%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>126,03%</t>
+          <t>-51,2%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>82,1%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>121,29%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>64,52%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7,61%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 1,49</t>
+          <t>-2,36; 1,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 0,8</t>
+          <t>-2,89; 1,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 3,04</t>
+          <t>-1,05; 2,89</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 15,33</t>
+          <t>-0,82; 5,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,2; 6,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,39; 5,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-79,25; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-53,77; 941,72</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-74,49; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-48,46; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-49,78; 517,81</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-59,23; 177,94</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>1,57</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>5,25</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>107,19%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>61,32%</t>
-        </is>
-      </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>223,49%</t>
+          <t>133,96%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>45,89%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>197,63%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-11,55%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>269,1%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,06; 7,9</t>
+          <t>0,86; 7,43</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 3,85</t>
+          <t>-0,71; 4,82</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 3,46</t>
+          <t>-3,25; 3,28</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 16,26</t>
+          <t>-0,79; 5,93</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,85; 2,76</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-71,03; 956,48</t>
+          <t>0,83; 10,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-74,02; 810,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,23; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-84,83; 662,32</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-86,29; 320,95</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-32,68; —</t>
         </is>
       </c>
     </row>
@@ -1225,37 +1497,57 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>52,23%</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>55,88%</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>56,44%</t>
+          <t>52,7%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>47,6%</t>
+          <t>58,91%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>49,69%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>55,92%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>47,31%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>51,56%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,23</t>
+          <t>-0,3; 1,42</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 0,91</t>
+          <t>-0,24; 1,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 0,98</t>
+          <t>-0,32; 1,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 6,93</t>
+          <t>-0,36; 1,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-55,12; 385,81</t>
+          <t>-0,49; 1,67</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-35,52; 311,16</t>
+          <t>-0,47; 2,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-33,63; 265,94</t>
+          <t>-44,49; 440,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-47,21; 316,94</t>
+          <t>-33,9; 333,94</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-40,97; 241,97</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-37,56; 339,56</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-28,9; 212,88</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-21,26; 174,75</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
